--- a/apps/load_data/2020/10/PLMOVMAE.xlsx
+++ b/apps/load_data/2020/10/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2020\HHY1020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020-m\HHY1020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A4A7E48-DD6F-4CE0-A17E-15ABD54B18AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC69934F-53F7-4B95-9634-3030A7DB5108}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9720" windowHeight="11235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9720" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$262</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$262</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11162" uniqueCount="3384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11142" uniqueCount="3381">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7342,9 +7343,6 @@
     <t>0058A         4</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8689,9 +8687,6 @@
     <t>0004A         4</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8996,9 +8991,6 @@
   </si>
   <si>
     <t>0127A         4</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -10180,7 +10172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -11020,10 +11012,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD173" sqref="AC173:AD263"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -43041,12 +43035,7 @@
       <c r="AB173" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2439</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>106</v>
       </c>
@@ -43099,16 +43088,16 @@
         <v>20</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BG173" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH173" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="BI173" s="1" t="s">
         <v>2441</v>
-      </c>
-      <c r="BI173" s="1" t="s">
-        <v>2442</v>
       </c>
       <c r="BM173" s="1" t="s">
         <v>117</v>
@@ -43123,13 +43112,13 @@
         <v>166</v>
       </c>
       <c r="BR173" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="BS173" s="3">
         <v>36225</v>
       </c>
       <c r="BT173" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BU173" s="1" t="s">
         <v>121</v>
@@ -43150,19 +43139,19 @@
         <v>111</v>
       </c>
       <c r="CC173" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="CD173" s="1" t="s">
         <v>2445</v>
       </c>
-      <c r="CD173" s="1" t="s">
+      <c r="CE173" s="1" t="s">
         <v>2446</v>
       </c>
-      <c r="CE173" s="1" t="s">
+      <c r="CG173" s="1" t="s">
         <v>2447</v>
       </c>
-      <c r="CG173" s="1" t="s">
+      <c r="CH173" s="1" t="s">
         <v>2448</v>
-      </c>
-      <c r="CH173" s="1" t="s">
-        <v>2449</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>129</v>
@@ -43200,19 +43189,19 @@
         <v>96</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2450</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2451</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2452</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="Q174" s="3">
         <v>27241</v>
@@ -43238,12 +43227,7 @@
       <c r="AB174" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2439</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>106</v>
       </c>
@@ -43290,7 +43274,7 @@
         <v>111</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="BB174" s="1">
         <v>10</v>
@@ -43299,13 +43283,13 @@
         <v>20</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH174" s="1" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="BI174" s="1" t="s">
         <v>1782</v>
@@ -43320,13 +43304,13 @@
         <v>102</v>
       </c>
       <c r="BR174" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BS174" s="3">
         <v>36949</v>
       </c>
       <c r="BT174" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="BU174" s="1" t="s">
         <v>121</v>
@@ -43350,16 +43334,16 @@
         <v>111</v>
       </c>
       <c r="CC174" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="CD174" s="1" t="s">
         <v>2123</v>
       </c>
       <c r="CE174" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="CG174" s="1" t="s">
         <v>2460</v>
-      </c>
-      <c r="CG174" s="1" t="s">
-        <v>2461</v>
       </c>
       <c r="CH174" s="1" t="s">
         <v>1787</v>
@@ -43400,22 +43384,22 @@
         <v>96</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2462</v>
-      </c>
-      <c r="L175" s="1" t="s">
-        <v>2463</v>
       </c>
       <c r="M175" s="1" t="s">
         <v>102</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="Q175" s="3">
         <v>25223</v>
@@ -43441,12 +43425,7 @@
       <c r="AB175" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2439</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>106</v>
       </c>
@@ -43493,7 +43472,7 @@
         <v>111</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="BB175" s="1">
         <v>10</v>
@@ -43502,16 +43481,16 @@
         <v>20</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH175" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="BI175" s="1" t="s">
         <v>2468</v>
-      </c>
-      <c r="BI175" s="1" t="s">
-        <v>2469</v>
       </c>
       <c r="BM175" s="1" t="s">
         <v>117</v>
@@ -43526,13 +43505,13 @@
         <v>166</v>
       </c>
       <c r="BR175" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BS175" s="3">
         <v>36825</v>
       </c>
       <c r="BT175" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="BU175" s="1" t="s">
         <v>121</v>
@@ -43556,19 +43535,19 @@
         <v>111</v>
       </c>
       <c r="CC175" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="CD175" s="1" t="s">
         <v>2472</v>
       </c>
-      <c r="CD175" s="1" t="s">
+      <c r="CE175" s="1" t="s">
         <v>2473</v>
       </c>
-      <c r="CE175" s="1" t="s">
+      <c r="CG175" s="1" t="s">
         <v>2474</v>
       </c>
-      <c r="CG175" s="1" t="s">
+      <c r="CH175" s="1" t="s">
         <v>2475</v>
-      </c>
-      <c r="CH175" s="1" t="s">
-        <v>2476</v>
       </c>
       <c r="CI175" s="1" t="s">
         <v>129</v>
@@ -43606,19 +43585,19 @@
         <v>96</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2477</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2478</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2479</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="Q176" s="3">
         <v>27018</v>
@@ -43641,12 +43620,7 @@
       <c r="AA176" s="1">
         <v>0</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2439</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>106</v>
       </c>
@@ -43696,7 +43670,7 @@
         <v>111</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="BB176" s="1">
         <v>10</v>
@@ -43705,13 +43679,13 @@
         <v>20</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="BM176" s="1" t="s">
         <v>117</v>
@@ -43720,7 +43694,7 @@
         <v>105</v>
       </c>
       <c r="BT176" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="BU176" s="1" t="s">
         <v>121</v>
@@ -43738,16 +43712,16 @@
         <v>111</v>
       </c>
       <c r="CC176" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="CD176" s="1" t="s">
         <v>1311</v>
       </c>
       <c r="CE176" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="CG176" s="1" t="s">
         <v>2486</v>
-      </c>
-      <c r="CG176" s="1" t="s">
-        <v>2487</v>
       </c>
       <c r="CH176" s="1" t="s">
         <v>129</v>
@@ -43788,19 +43762,19 @@
         <v>96</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2488</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2489</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2490</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="Q177" s="3">
         <v>29037</v>
@@ -43826,12 +43800,7 @@
       <c r="AB177" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2439</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>106</v>
       </c>
@@ -43881,7 +43850,7 @@
         <v>111</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="BB177" s="1">
         <v>10</v>
@@ -43890,13 +43859,13 @@
         <v>20</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH177" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="BI177" s="1" t="s">
         <v>395</v>
@@ -43908,7 +43877,7 @@
         <v>105</v>
       </c>
       <c r="BT177" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="BU177" s="1" t="s">
         <v>121</v>
@@ -43929,13 +43898,13 @@
         <v>719</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2496</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CG177" s="1" t="s">
         <v>2497</v>
-      </c>
-      <c r="CG177" s="1" t="s">
-        <v>2498</v>
       </c>
       <c r="CH177" s="1" t="s">
         <v>402</v>
@@ -43976,19 +43945,19 @@
         <v>96</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2499</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2500</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2501</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="Q178" s="3">
         <v>26647</v>
@@ -44011,12 +43980,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2439</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>106</v>
       </c>
@@ -44066,7 +44030,7 @@
         <v>111</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="BB178" s="1">
         <v>10</v>
@@ -44075,13 +44039,13 @@
         <v>20</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="BM178" s="1" t="s">
         <v>117</v>
@@ -44090,7 +44054,7 @@
         <v>105</v>
       </c>
       <c r="BT178" s="1" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="BU178" s="1" t="s">
         <v>121</v>
@@ -44108,16 +44072,16 @@
         <v>111</v>
       </c>
       <c r="CC178" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="CD178" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="CE178" s="1" t="s">
         <v>2507</v>
       </c>
-      <c r="CD178" s="1" t="s">
-        <v>2507</v>
-      </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CG178" s="1" t="s">
         <v>2508</v>
-      </c>
-      <c r="CG178" s="1" t="s">
-        <v>2509</v>
       </c>
       <c r="CH178" s="1" t="s">
         <v>129</v>
@@ -44158,19 +44122,19 @@
         <v>96</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2510</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2511</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2512</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="Q179" s="3">
         <v>25405</v>
@@ -44199,12 +44163,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2439</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>106</v>
       </c>
@@ -44251,7 +44210,7 @@
         <v>111</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="BB179" s="1">
         <v>10</v>
@@ -44260,16 +44219,16 @@
         <v>20</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH179" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="BI179" s="1" t="s">
         <v>2516</v>
-      </c>
-      <c r="BI179" s="1" t="s">
-        <v>2517</v>
       </c>
       <c r="BM179" s="1" t="s">
         <v>117</v>
@@ -44281,13 +44240,13 @@
         <v>118</v>
       </c>
       <c r="BR179" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="BS179" s="3">
         <v>35243</v>
       </c>
       <c r="BT179" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="BU179" s="1" t="s">
         <v>121</v>
@@ -44305,19 +44264,19 @@
         <v>111</v>
       </c>
       <c r="CC179" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="CD179" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="CD179" s="1" t="s">
+      <c r="CE179" s="1" t="s">
         <v>2521</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CG179" s="1" t="s">
         <v>2522</v>
       </c>
-      <c r="CG179" s="1" t="s">
+      <c r="CH179" s="1" t="s">
         <v>2523</v>
-      </c>
-      <c r="CH179" s="1" t="s">
-        <v>2524</v>
       </c>
       <c r="CI179" s="1" t="s">
         <v>129</v>
@@ -44355,19 +44314,19 @@
         <v>96</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2524</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2525</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2526</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2527</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="Q180" s="3">
         <v>28845</v>
@@ -44390,12 +44349,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2439</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>106</v>
       </c>
@@ -44445,7 +44399,7 @@
         <v>111</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="BB180" s="1">
         <v>10</v>
@@ -44454,13 +44408,13 @@
         <v>20</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="BI180" s="1" t="s">
         <v>825</v>
@@ -44472,7 +44426,7 @@
         <v>105</v>
       </c>
       <c r="BT180" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="BU180" s="1" t="s">
         <v>121</v>
@@ -44490,16 +44444,16 @@
         <v>111</v>
       </c>
       <c r="CC180" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="CD180" s="1" t="s">
         <v>2533</v>
       </c>
-      <c r="CD180" s="1" t="s">
+      <c r="CE180" s="1" t="s">
         <v>2534</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CG180" s="1" t="s">
         <v>2535</v>
-      </c>
-      <c r="CG180" s="1" t="s">
-        <v>2536</v>
       </c>
       <c r="CH180" s="1" t="s">
         <v>831</v>
@@ -44540,19 +44494,19 @@
         <v>96</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2537</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2538</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2539</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="Q181" s="3">
         <v>21425</v>
@@ -44575,12 +44529,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2439</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>106</v>
       </c>
@@ -44630,7 +44579,7 @@
         <v>111</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BB181" s="1">
         <v>10</v>
@@ -44639,13 +44588,13 @@
         <v>20</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH181" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="BI181" s="1" t="s">
         <v>1111</v>
@@ -44660,7 +44609,7 @@
         <v>166</v>
       </c>
       <c r="BT181" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="BU181" s="1" t="s">
         <v>121</v>
@@ -44678,16 +44627,16 @@
         <v>111</v>
       </c>
       <c r="CC181" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="CD181" s="1" t="s">
         <v>2545</v>
       </c>
-      <c r="CD181" s="1" t="s">
+      <c r="CE181" s="1" t="s">
         <v>2546</v>
       </c>
-      <c r="CE181" s="1" t="s">
+      <c r="CG181" s="1" t="s">
         <v>2547</v>
-      </c>
-      <c r="CG181" s="1" t="s">
-        <v>2548</v>
       </c>
       <c r="CH181" s="1" t="s">
         <v>1117</v>
@@ -44704,13 +44653,13 @@
         <v>88</v>
       </c>
       <c r="C182" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>2549</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="E182" s="1" t="s">
         <v>2550</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>2551</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>111</v>
@@ -44722,25 +44671,25 @@
         <v>94</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2552</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2553</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2554</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2555</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="Q182" s="3">
         <v>23286</v>
@@ -44766,12 +44715,7 @@
       <c r="AA182" s="1">
         <v>0</v>
       </c>
-      <c r="AC182" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD182" s="1" t="s">
-        <v>2439</v>
-      </c>
+      <c r="AC182" s="3"/>
       <c r="AF182" s="1" t="s">
         <v>106</v>
       </c>
@@ -44821,7 +44765,7 @@
         <v>111</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="BB182" s="1">
         <v>10</v>
@@ -44830,13 +44774,13 @@
         <v>20</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH182" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="BM182" s="1" t="s">
         <v>117</v>
@@ -44845,7 +44789,7 @@
         <v>105</v>
       </c>
       <c r="BT182" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="BU182" s="1" t="s">
         <v>121</v>
@@ -44866,16 +44810,16 @@
         <v>111</v>
       </c>
       <c r="CC182" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="CD182" s="1" t="s">
         <v>2561</v>
       </c>
-      <c r="CD182" s="1" t="s">
+      <c r="CE182" s="1" t="s">
         <v>2562</v>
       </c>
-      <c r="CE182" s="1" t="s">
+      <c r="CG182" s="1" t="s">
         <v>2563</v>
-      </c>
-      <c r="CG182" s="1" t="s">
-        <v>2564</v>
       </c>
       <c r="CH182" s="1" t="s">
         <v>129</v>
@@ -44916,19 +44860,19 @@
         <v>96</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2565</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2566</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2567</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P183" s="1" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="Q183" s="3">
         <v>26907</v>
@@ -44951,12 +44895,7 @@
       <c r="AA183" s="1">
         <v>0</v>
       </c>
-      <c r="AC183" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD183" s="1" t="s">
-        <v>2439</v>
-      </c>
+      <c r="AC183" s="3"/>
       <c r="AF183" s="1" t="s">
         <v>106</v>
       </c>
@@ -45003,7 +44942,7 @@
         <v>111</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="BB183" s="1">
         <v>10</v>
@@ -45012,16 +44951,16 @@
         <v>20</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH183" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="BI183" s="1" t="s">
         <v>2571</v>
-      </c>
-      <c r="BI183" s="1" t="s">
-        <v>2572</v>
       </c>
       <c r="BM183" s="1" t="s">
         <v>117</v>
@@ -45033,13 +44972,13 @@
         <v>118</v>
       </c>
       <c r="BR183" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="BS183" s="3">
         <v>35950</v>
       </c>
       <c r="BT183" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="BU183" s="1" t="s">
         <v>121</v>
@@ -45057,19 +44996,19 @@
         <v>111</v>
       </c>
       <c r="CC183" s="1" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="CD183" s="1" t="s">
         <v>1913</v>
       </c>
       <c r="CE183" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="CG183" s="1" t="s">
         <v>2576</v>
       </c>
-      <c r="CG183" s="1" t="s">
+      <c r="CH183" s="1" t="s">
         <v>2577</v>
-      </c>
-      <c r="CH183" s="1" t="s">
-        <v>2578</v>
       </c>
       <c r="CI183" s="1" t="s">
         <v>129</v>
@@ -45107,19 +45046,19 @@
         <v>96</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2579</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2580</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2581</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="Q184" s="3">
         <v>28642</v>
@@ -45194,7 +45133,7 @@
         <v>111</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="BB184" s="1">
         <v>10</v>
@@ -45203,13 +45142,13 @@
         <v>20</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH184" s="1" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="BM184" s="1" t="s">
         <v>117</v>
@@ -45221,7 +45160,7 @@
         <v>166</v>
       </c>
       <c r="BT184" s="1" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="BU184" s="1" t="s">
         <v>121</v>
@@ -45239,16 +45178,16 @@
         <v>111</v>
       </c>
       <c r="CC184" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="CD184" s="1" t="s">
         <v>438</v>
       </c>
       <c r="CE184" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="CG184" s="1" t="s">
         <v>2588</v>
-      </c>
-      <c r="CG184" s="1" t="s">
-        <v>2589</v>
       </c>
       <c r="CH184" s="1" t="s">
         <v>129</v>
@@ -45289,19 +45228,19 @@
         <v>96</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2590</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2591</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2592</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="Q185" s="3">
         <v>28239</v>
@@ -45370,7 +45309,7 @@
         <v>111</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="BB185" s="1">
         <v>10</v>
@@ -45379,13 +45318,13 @@
         <v>20</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH185" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="BI185" s="1" t="s">
         <v>1967</v>
@@ -45400,13 +45339,13 @@
         <v>236</v>
       </c>
       <c r="BR185" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="BS185" s="3">
         <v>36099</v>
       </c>
       <c r="BT185" s="1" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="BU185" s="1" t="s">
         <v>121</v>
@@ -45424,16 +45363,16 @@
         <v>111</v>
       </c>
       <c r="CC185" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="CD185" s="1" t="s">
         <v>2599</v>
       </c>
-      <c r="CD185" s="1" t="s">
+      <c r="CE185" s="1" t="s">
         <v>2600</v>
       </c>
-      <c r="CE185" s="1" t="s">
+      <c r="CG185" s="1" t="s">
         <v>2601</v>
-      </c>
-      <c r="CG185" s="1" t="s">
-        <v>2602</v>
       </c>
       <c r="CH185" s="1" t="s">
         <v>1973</v>
@@ -45474,19 +45413,19 @@
         <v>96</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2602</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2603</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2604</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2605</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="Q186" s="3">
         <v>25589</v>
@@ -45555,7 +45494,7 @@
         <v>111</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="BB186" s="1">
         <v>10</v>
@@ -45564,16 +45503,16 @@
         <v>20</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH186" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="BI186" s="1" t="s">
         <v>2609</v>
-      </c>
-      <c r="BI186" s="1" t="s">
-        <v>2610</v>
       </c>
       <c r="BM186" s="1" t="s">
         <v>117</v>
@@ -45585,13 +45524,13 @@
         <v>102</v>
       </c>
       <c r="BR186" s="1" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="BS186" s="3">
         <v>37735</v>
       </c>
       <c r="BT186" s="1" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="BU186" s="1" t="s">
         <v>121</v>
@@ -45609,19 +45548,19 @@
         <v>111</v>
       </c>
       <c r="CC186" s="1" t="s">
+        <v>2612</v>
+      </c>
+      <c r="CD186" s="1" t="s">
         <v>2613</v>
       </c>
-      <c r="CD186" s="1" t="s">
+      <c r="CE186" s="1" t="s">
         <v>2614</v>
       </c>
-      <c r="CE186" s="1" t="s">
+      <c r="CG186" s="1" t="s">
         <v>2615</v>
       </c>
-      <c r="CG186" s="1" t="s">
+      <c r="CH186" s="1" t="s">
         <v>2616</v>
-      </c>
-      <c r="CH186" s="1" t="s">
-        <v>2617</v>
       </c>
       <c r="CI186" s="1" t="s">
         <v>129</v>
@@ -45659,19 +45598,19 @@
         <v>96</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2617</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2618</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2619</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2620</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="Q187" s="3">
         <v>29170</v>
@@ -45743,7 +45682,7 @@
         <v>111</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="BB187" s="1">
         <v>10</v>
@@ -45752,13 +45691,13 @@
         <v>20</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH187" s="1" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="BM187" s="1" t="s">
         <v>117</v>
@@ -45767,7 +45706,7 @@
         <v>105</v>
       </c>
       <c r="BT187" s="1" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="BU187" s="1" t="s">
         <v>121</v>
@@ -45785,16 +45724,16 @@
         <v>111</v>
       </c>
       <c r="CC187" s="1" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="CD187" s="1" t="s">
         <v>926</v>
       </c>
       <c r="CE187" s="1" t="s">
+        <v>2626</v>
+      </c>
+      <c r="CG187" s="1" t="s">
         <v>2627</v>
-      </c>
-      <c r="CG187" s="1" t="s">
-        <v>2628</v>
       </c>
       <c r="CH187" s="1" t="s">
         <v>129</v>
@@ -45817,7 +45756,7 @@
         <v>191</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>111</v>
@@ -45829,25 +45768,25 @@
         <v>94</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2630</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2631</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2632</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2633</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P188" s="1" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="Q188" s="3">
         <v>27250</v>
@@ -45877,7 +45816,7 @@
         <v>106</v>
       </c>
       <c r="AG188" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="AH188" s="1" t="s">
         <v>2040</v>
@@ -45922,7 +45861,7 @@
         <v>111</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="BB188" s="1">
         <v>10</v>
@@ -45931,13 +45870,13 @@
         <v>20</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="BM188" s="1" t="s">
         <v>117</v>
@@ -45946,7 +45885,7 @@
         <v>105</v>
       </c>
       <c r="BT188" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="BU188" s="1" t="s">
         <v>121</v>
@@ -45955,7 +45894,7 @@
         <v>0</v>
       </c>
       <c r="BZ188" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="CA188" s="1" t="s">
         <v>123</v>
@@ -45967,13 +45906,13 @@
         <v>1694</v>
       </c>
       <c r="CD188" s="1" t="s">
+        <v>2640</v>
+      </c>
+      <c r="CE188" s="1" t="s">
         <v>2641</v>
       </c>
-      <c r="CE188" s="1" t="s">
+      <c r="CG188" s="1" t="s">
         <v>2642</v>
-      </c>
-      <c r="CG188" s="1" t="s">
-        <v>2643</v>
       </c>
       <c r="CH188" s="1" t="s">
         <v>129</v>
@@ -46014,19 +45953,19 @@
         <v>96</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2643</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2644</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2645</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2646</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="Q189" s="3">
         <v>27999</v>
@@ -46098,7 +46037,7 @@
         <v>111</v>
       </c>
       <c r="AZ189" s="1" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="BB189" s="1">
         <v>10</v>
@@ -46107,16 +46046,16 @@
         <v>20</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH189" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="BI189" s="1" t="s">
         <v>2650</v>
-      </c>
-      <c r="BI189" s="1" t="s">
-        <v>2651</v>
       </c>
       <c r="BM189" s="1" t="s">
         <v>117</v>
@@ -46128,13 +46067,13 @@
         <v>102</v>
       </c>
       <c r="BR189" s="1" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="BS189" s="3">
         <v>43602</v>
       </c>
       <c r="BT189" s="1" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="BU189" s="1" t="s">
         <v>121</v>
@@ -46158,13 +46097,13 @@
         <v>1019</v>
       </c>
       <c r="CE189" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="CG189" s="1" t="s">
         <v>2654</v>
       </c>
-      <c r="CG189" s="1" t="s">
+      <c r="CH189" s="1" t="s">
         <v>2655</v>
-      </c>
-      <c r="CH189" s="1" t="s">
-        <v>2656</v>
       </c>
       <c r="CI189" s="1" t="s">
         <v>129</v>
@@ -46202,19 +46141,19 @@
         <v>96</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2657</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2658</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2659</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="Q190" s="3">
         <v>29305</v>
@@ -46286,7 +46225,7 @@
         <v>111</v>
       </c>
       <c r="AZ190" s="1" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="BB190" s="1">
         <v>10</v>
@@ -46295,13 +46234,13 @@
         <v>20</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH190" s="1" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="BM190" s="1" t="s">
         <v>117</v>
@@ -46310,7 +46249,7 @@
         <v>105</v>
       </c>
       <c r="BT190" s="1" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="BU190" s="1" t="s">
         <v>121</v>
@@ -46328,16 +46267,16 @@
         <v>111</v>
       </c>
       <c r="CC190" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="CD190" s="1" t="s">
         <v>2665</v>
       </c>
-      <c r="CD190" s="1" t="s">
+      <c r="CE190" s="1" t="s">
         <v>2666</v>
       </c>
-      <c r="CE190" s="1" t="s">
+      <c r="CG190" s="1" t="s">
         <v>2667</v>
-      </c>
-      <c r="CG190" s="1" t="s">
-        <v>2668</v>
       </c>
       <c r="CH190" s="1" t="s">
         <v>129</v>
@@ -46378,19 +46317,19 @@
         <v>96</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2668</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2669</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2670</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2671</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="Q191" s="3">
         <v>23125</v>
@@ -46423,7 +46362,7 @@
         <v>42247</v>
       </c>
       <c r="AD191" s="1" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="AF191" s="1" t="s">
         <v>106</v>
@@ -46477,16 +46416,16 @@
         <v>20</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH191" s="1" t="s">
+        <v>2674</v>
+      </c>
+      <c r="BI191" s="1" t="s">
         <v>2675</v>
-      </c>
-      <c r="BI191" s="1" t="s">
-        <v>2676</v>
       </c>
       <c r="BM191" s="1" t="s">
         <v>117</v>
@@ -46498,13 +46437,13 @@
         <v>236</v>
       </c>
       <c r="BR191" s="1" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="BS191" s="3">
         <v>36580</v>
       </c>
       <c r="BT191" s="1" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="BU191" s="1" t="s">
         <v>121</v>
@@ -46525,7 +46464,7 @@
         <v>111</v>
       </c>
       <c r="CC191" s="1" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="CD191" s="1" t="s">
         <v>306</v>
@@ -46534,10 +46473,10 @@
         <v>1725</v>
       </c>
       <c r="CG191" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="CH191" s="1" t="s">
         <v>2680</v>
-      </c>
-      <c r="CH191" s="1" t="s">
-        <v>2681</v>
       </c>
       <c r="CI191" s="1" t="s">
         <v>129</v>
@@ -46575,19 +46514,19 @@
         <v>96</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2682</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2683</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2684</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="Q192" s="3">
         <v>30023</v>
@@ -46662,13 +46601,13 @@
         <v>20</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="BI192" s="1" t="s">
         <v>1956</v>
@@ -46683,13 +46622,13 @@
         <v>118</v>
       </c>
       <c r="BR192" s="1" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="BS192" s="3">
         <v>37747</v>
       </c>
       <c r="BT192" s="1" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="BU192" s="1" t="s">
         <v>121</v>
@@ -46713,10 +46652,10 @@
         <v>706</v>
       </c>
       <c r="CE192" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="CG192" s="1" t="s">
         <v>2690</v>
-      </c>
-      <c r="CG192" s="1" t="s">
-        <v>2691</v>
       </c>
       <c r="CH192" s="1" t="s">
         <v>1960</v>
@@ -46757,19 +46696,19 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2691</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2692</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2693</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2694</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="Q193" s="3">
         <v>26205</v>
@@ -46847,13 +46786,13 @@
         <v>20</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH193" s="1" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="BM193" s="1" t="s">
         <v>117</v>
@@ -46862,7 +46801,7 @@
         <v>105</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>121</v>
@@ -46880,16 +46819,16 @@
         <v>111</v>
       </c>
       <c r="CC193" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="CD193" s="1" t="s">
         <v>2699</v>
       </c>
-      <c r="CD193" s="1" t="s">
+      <c r="CE193" s="1" t="s">
         <v>2700</v>
       </c>
-      <c r="CE193" s="1" t="s">
+      <c r="CG193" s="1" t="s">
         <v>2701</v>
-      </c>
-      <c r="CG193" s="1" t="s">
-        <v>2702</v>
       </c>
       <c r="CH193" s="1" t="s">
         <v>129</v>
@@ -46930,19 +46869,19 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2703</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2704</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2705</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="Q194" s="3">
         <v>31662</v>
@@ -47020,13 +46959,13 @@
         <v>20</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH194" s="1" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="BM194" s="1" t="s">
         <v>117</v>
@@ -47035,7 +46974,7 @@
         <v>166</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>121</v>
@@ -47053,16 +46992,16 @@
         <v>111</v>
       </c>
       <c r="CC194" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="CD194" s="1" t="s">
         <v>2710</v>
       </c>
-      <c r="CD194" s="1" t="s">
+      <c r="CE194" s="1" t="s">
         <v>2711</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CG194" s="1" t="s">
         <v>2712</v>
-      </c>
-      <c r="CG194" s="1" t="s">
-        <v>2713</v>
       </c>
       <c r="CH194" s="1" t="s">
         <v>129</v>
@@ -47103,19 +47042,19 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2714</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2715</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2716</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P195" s="1" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="Q195" s="3">
         <v>29117</v>
@@ -47190,16 +47129,16 @@
         <v>20</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="BG195" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH195" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="BI195" s="1" t="s">
         <v>2719</v>
-      </c>
-      <c r="BI195" s="1" t="s">
-        <v>2720</v>
       </c>
       <c r="BM195" s="1" t="s">
         <v>117</v>
@@ -47211,13 +47150,13 @@
         <v>102</v>
       </c>
       <c r="BR195" s="1" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="BS195" s="3">
         <v>37334</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>121</v>
@@ -47238,16 +47177,16 @@
         <v>543</v>
       </c>
       <c r="CD195" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="CE195" s="1" t="s">
         <v>2723</v>
       </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CG195" s="1" t="s">
         <v>2724</v>
       </c>
-      <c r="CG195" s="1" t="s">
+      <c r="CH195" s="1" t="s">
         <v>2725</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2726</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>129</v>
@@ -47285,19 +47224,19 @@
         <v>498</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2726</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2727</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2728</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2729</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P196" s="1" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="Q196" s="3">
         <v>30007</v>
@@ -47372,16 +47311,16 @@
         <v>20</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH196" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="BI196" s="1" t="s">
         <v>2732</v>
-      </c>
-      <c r="BI196" s="1" t="s">
-        <v>2733</v>
       </c>
       <c r="BM196" s="1" t="s">
         <v>117</v>
@@ -47393,13 +47332,13 @@
         <v>102</v>
       </c>
       <c r="BR196" s="1" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="BS196" s="3">
         <v>37904</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>121</v>
@@ -47420,16 +47359,16 @@
         <v>1019</v>
       </c>
       <c r="CD196" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="CE196" s="1" t="s">
         <v>2736</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CG196" s="1" t="s">
         <v>2737</v>
       </c>
-      <c r="CG196" s="1" t="s">
+      <c r="CH196" s="1" t="s">
         <v>2738</v>
-      </c>
-      <c r="CH196" s="1" t="s">
-        <v>2739</v>
       </c>
       <c r="CI196" s="1" t="s">
         <v>129</v>
@@ -47449,7 +47388,7 @@
         <v>191</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>111</v>
@@ -47461,25 +47400,25 @@
         <v>94</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2739</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2740</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2741</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2742</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P197" s="1" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="Q197" s="3">
         <v>26221</v>
@@ -47554,13 +47493,13 @@
         <v>20</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="BG197" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH197" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="BM197" s="1" t="s">
         <v>117</v>
@@ -47572,13 +47511,13 @@
         <v>118</v>
       </c>
       <c r="BR197" s="1" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="BS197" s="3">
         <v>36111</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>121</v>
@@ -47587,7 +47526,7 @@
         <v>0</v>
       </c>
       <c r="BZ197" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="CA197" s="1" t="s">
         <v>123</v>
@@ -47596,16 +47535,16 @@
         <v>111</v>
       </c>
       <c r="CC197" s="1" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="CD197" s="1" t="s">
         <v>1219</v>
       </c>
       <c r="CE197" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="CG197" s="1" t="s">
         <v>2749</v>
-      </c>
-      <c r="CG197" s="1" t="s">
-        <v>2750</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>129</v>
@@ -47646,19 +47585,19 @@
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2752</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2753</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P198" s="1" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="Q198" s="3">
         <v>27571</v>
@@ -47733,13 +47672,13 @@
         <v>20</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="BG198" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH198" s="1" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="BI198" s="1" t="s">
         <v>2005</v>
@@ -47754,13 +47693,13 @@
         <v>118</v>
       </c>
       <c r="BR198" s="1" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="BS198" s="3">
         <v>37785</v>
       </c>
       <c r="BT198" s="1" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="BU198" s="1" t="s">
         <v>121</v>
@@ -47778,16 +47717,16 @@
         <v>111</v>
       </c>
       <c r="CC198" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="CD198" s="1" t="s">
         <v>2759</v>
       </c>
-      <c r="CD198" s="1" t="s">
+      <c r="CE198" s="1" t="s">
         <v>2760</v>
       </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CG198" s="1" t="s">
         <v>2761</v>
-      </c>
-      <c r="CG198" s="1" t="s">
-        <v>2762</v>
       </c>
       <c r="CH198" s="1" t="s">
         <v>2012</v>
@@ -47804,10 +47743,10 @@
         <v>88</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>152</v>
@@ -47822,25 +47761,25 @@
         <v>94</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2765</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2766</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2767</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P199" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="Q199" s="3">
         <v>30041</v>
@@ -47921,13 +47860,13 @@
         <v>20</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="BM199" s="1" t="s">
         <v>117</v>
@@ -47936,7 +47875,7 @@
         <v>105</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>121</v>
@@ -47945,7 +47884,7 @@
         <v>0</v>
       </c>
       <c r="BZ199" s="1" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="CA199" s="1" t="s">
         <v>123</v>
@@ -47957,13 +47896,13 @@
         <v>1345</v>
       </c>
       <c r="CD199" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="CE199" s="1" t="s">
         <v>2773</v>
       </c>
-      <c r="CE199" s="1" t="s">
+      <c r="CG199" s="1" t="s">
         <v>2774</v>
-      </c>
-      <c r="CG199" s="1" t="s">
-        <v>2775</v>
       </c>
       <c r="CH199" s="1" t="s">
         <v>129</v>
@@ -48004,19 +47943,19 @@
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2776</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2777</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2778</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P200" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="Q200" s="3">
         <v>30993</v>
@@ -48088,7 +48027,7 @@
         <v>111</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="BB200" s="1">
         <v>10</v>
@@ -48097,13 +48036,13 @@
         <v>20</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="BM200" s="1" t="s">
         <v>117</v>
@@ -48112,7 +48051,7 @@
         <v>105</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>121</v>
@@ -48130,16 +48069,16 @@
         <v>111</v>
       </c>
       <c r="CC200" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="CD200" s="1" t="s">
         <v>2784</v>
       </c>
-      <c r="CD200" s="1" t="s">
+      <c r="CE200" s="1" t="s">
         <v>2785</v>
       </c>
-      <c r="CE200" s="1" t="s">
+      <c r="CG200" s="1" t="s">
         <v>2786</v>
-      </c>
-      <c r="CG200" s="1" t="s">
-        <v>2787</v>
       </c>
       <c r="CH200" s="1" t="s">
         <v>129</v>
@@ -48180,19 +48119,19 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2788</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2789</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2790</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P201" s="1" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="Q201" s="3">
         <v>30065</v>
@@ -48264,7 +48203,7 @@
         <v>111</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="BB201" s="1">
         <v>10</v>
@@ -48273,13 +48212,13 @@
         <v>20</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="BG201" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="BI201" s="1" t="s">
         <v>1956</v>
@@ -48291,7 +48230,7 @@
         <v>105</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>121</v>
@@ -48309,16 +48248,16 @@
         <v>111</v>
       </c>
       <c r="CC201" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="CD201" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="CE201" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="CG201" s="1" t="s">
         <v>2796</v>
-      </c>
-      <c r="CG201" s="1" t="s">
-        <v>2797</v>
       </c>
       <c r="CH201" s="1" t="s">
         <v>1960</v>
@@ -48359,19 +48298,19 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2798</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2799</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2800</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P202" s="1" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="Q202" s="3">
         <v>30033</v>
@@ -48443,7 +48382,7 @@
         <v>111</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="BB202" s="1">
         <v>10</v>
@@ -48452,13 +48391,13 @@
         <v>20</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="BM202" s="1" t="s">
         <v>117</v>
@@ -48467,7 +48406,7 @@
         <v>105</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>121</v>
@@ -48488,13 +48427,13 @@
         <v>1194</v>
       </c>
       <c r="CD202" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="CE202" s="1" t="s">
         <v>2806</v>
       </c>
-      <c r="CE202" s="1" t="s">
+      <c r="CG202" s="1" t="s">
         <v>2807</v>
-      </c>
-      <c r="CG202" s="1" t="s">
-        <v>2808</v>
       </c>
       <c r="CH202" s="1" t="s">
         <v>129</v>
@@ -48535,19 +48474,19 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2809</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2810</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2811</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P203" s="1" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="Q203" s="3">
         <v>29411</v>
@@ -48619,7 +48558,7 @@
         <v>111</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="BB203" s="1">
         <v>10</v>
@@ -48628,13 +48567,13 @@
         <v>20</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="BG203" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH203" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="BI203" s="1" t="s">
         <v>1956</v>
@@ -48652,13 +48591,13 @@
         <v>166</v>
       </c>
       <c r="BR203" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="BS203" s="3">
         <v>37513</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>121</v>
@@ -48676,16 +48615,16 @@
         <v>111</v>
       </c>
       <c r="CC203" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="CD203" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE203" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="CG203" s="1" t="s">
         <v>2819</v>
-      </c>
-      <c r="CG203" s="1" t="s">
-        <v>2820</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>1960</v>
@@ -48726,19 +48665,19 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2820</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2821</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2822</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2823</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P204" s="1" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="Q204" s="3">
         <v>32173</v>
@@ -48813,16 +48752,16 @@
         <v>20</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="BG204" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH204" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="BI204" s="1" t="s">
         <v>2826</v>
-      </c>
-      <c r="BI204" s="1" t="s">
-        <v>2827</v>
       </c>
       <c r="BM204" s="1" t="s">
         <v>117</v>
@@ -48834,13 +48773,13 @@
         <v>102</v>
       </c>
       <c r="BR204" s="1" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="BS204" s="3">
         <v>41024</v>
       </c>
       <c r="BT204" s="1" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="BU204" s="1" t="s">
         <v>121</v>
@@ -48858,19 +48797,19 @@
         <v>111</v>
       </c>
       <c r="CC204" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="CD204" s="1" t="s">
         <v>2830</v>
       </c>
-      <c r="CD204" s="1" t="s">
+      <c r="CE204" s="1" t="s">
         <v>2831</v>
       </c>
-      <c r="CE204" s="1" t="s">
+      <c r="CG204" s="1" t="s">
         <v>2832</v>
       </c>
-      <c r="CG204" s="1" t="s">
+      <c r="CH204" s="1" t="s">
         <v>2833</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2834</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>129</v>
@@ -48908,19 +48847,19 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2835</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2836</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2837</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="Q205" s="3">
         <v>18645</v>
@@ -48950,7 +48889,7 @@
         <v>106</v>
       </c>
       <c r="AG205" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="AH205" s="1" t="s">
         <v>2040</v>
@@ -48995,7 +48934,7 @@
         <v>111</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="BB205" s="1">
         <v>10</v>
@@ -49004,13 +48943,13 @@
         <v>20</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>395</v>
@@ -49025,13 +48964,13 @@
         <v>118</v>
       </c>
       <c r="BR205" s="1" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="BS205" s="3">
         <v>34808</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>121</v>
@@ -49049,16 +48988,16 @@
         <v>111</v>
       </c>
       <c r="CC205" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="CD205" s="1" t="s">
         <v>2844</v>
       </c>
-      <c r="CD205" s="1" t="s">
+      <c r="CE205" s="1" t="s">
         <v>2845</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CG205" s="1" t="s">
         <v>2846</v>
-      </c>
-      <c r="CG205" s="1" t="s">
-        <v>2847</v>
       </c>
       <c r="CH205" s="1" t="s">
         <v>402</v>
@@ -49099,19 +49038,19 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2848</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2849</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2850</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P206" s="1" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="Q206" s="3">
         <v>30408</v>
@@ -49180,7 +49119,7 @@
         <v>111</v>
       </c>
       <c r="AZ206" s="1" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="BB206" s="1">
         <v>10</v>
@@ -49189,13 +49128,13 @@
         <v>20</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="BG206" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="BI206" s="1" t="s">
         <v>1111</v>
@@ -49210,13 +49149,13 @@
         <v>102</v>
       </c>
       <c r="BR206" s="1" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="BS206" s="3">
         <v>37336</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>121</v>
@@ -49234,16 +49173,16 @@
         <v>111</v>
       </c>
       <c r="CC206" s="1" t="s">
+        <v>2856</v>
+      </c>
+      <c r="CD206" s="1" t="s">
         <v>2857</v>
       </c>
-      <c r="CD206" s="1" t="s">
+      <c r="CE206" s="1" t="s">
         <v>2858</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CG206" s="1" t="s">
         <v>2859</v>
-      </c>
-      <c r="CG206" s="1" t="s">
-        <v>2860</v>
       </c>
       <c r="CH206" s="1" t="s">
         <v>1117</v>
@@ -49284,19 +49223,19 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2861</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2862</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2863</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P207" s="1" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="Q207" s="3">
         <v>28132</v>
@@ -49368,7 +49307,7 @@
         <v>111</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="BB207" s="1">
         <v>10</v>
@@ -49377,13 +49316,13 @@
         <v>20</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="BG207" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="BI207" s="1" t="s">
         <v>785</v>
@@ -49395,7 +49334,7 @@
         <v>105</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>121</v>
@@ -49413,16 +49352,16 @@
         <v>111</v>
       </c>
       <c r="CC207" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="CD207" s="1" t="s">
         <v>2869</v>
       </c>
-      <c r="CD207" s="1" t="s">
+      <c r="CE207" s="1" t="s">
         <v>2870</v>
       </c>
-      <c r="CE207" s="1" t="s">
+      <c r="CG207" s="1" t="s">
         <v>2871</v>
-      </c>
-      <c r="CG207" s="1" t="s">
-        <v>2872</v>
       </c>
       <c r="CH207" s="1" t="s">
         <v>791</v>
@@ -49463,19 +49402,19 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2873</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2874</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2875</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P208" s="1" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="Q208" s="3">
         <v>31743</v>
@@ -49556,13 +49495,13 @@
         <v>20</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="BG208" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH208" s="1" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>117</v>
@@ -49571,7 +49510,7 @@
         <v>105</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>121</v>
@@ -49589,16 +49528,16 @@
         <v>111</v>
       </c>
       <c r="CC208" s="1" t="s">
+        <v>2879</v>
+      </c>
+      <c r="CD208" s="1" t="s">
         <v>2880</v>
       </c>
-      <c r="CD208" s="1" t="s">
+      <c r="CE208" s="1" t="s">
         <v>2881</v>
       </c>
-      <c r="CE208" s="1" t="s">
+      <c r="CG208" s="1" t="s">
         <v>2882</v>
-      </c>
-      <c r="CG208" s="1" t="s">
-        <v>2883</v>
       </c>
       <c r="CH208" s="1" t="s">
         <v>129</v>
@@ -49639,19 +49578,19 @@
         <v>2294</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2884</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="N209" s="1" t="s">
         <v>2885</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2886</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P209" s="1" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="Q209" s="3">
         <v>23750</v>
@@ -49680,12 +49619,7 @@
       <c r="AA209" s="1">
         <v>0</v>
       </c>
-      <c r="AC209" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2888</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>106</v>
       </c>
@@ -49735,7 +49669,7 @@
         <v>111</v>
       </c>
       <c r="AZ209" s="1" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="BB209" s="1">
         <v>10</v>
@@ -49744,13 +49678,13 @@
         <v>20</v>
       </c>
       <c r="BD209" s="1" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="BG209" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH209" s="1" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="BI209" s="1" t="s">
         <v>1865</v>
@@ -49762,7 +49696,7 @@
         <v>105</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>121</v>
@@ -49774,7 +49708,7 @@
         <v>110</v>
       </c>
       <c r="BZ209" s="1" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="CA209" s="1" t="s">
         <v>123</v>
@@ -49786,13 +49720,13 @@
         <v>1245</v>
       </c>
       <c r="CD209" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="CE209" s="1" t="s">
+        <v>2893</v>
+      </c>
+      <c r="CG209" s="1" t="s">
         <v>2894</v>
-      </c>
-      <c r="CE209" s="1" t="s">
-        <v>2895</v>
-      </c>
-      <c r="CG209" s="1" t="s">
-        <v>2896</v>
       </c>
       <c r="CH209" s="1" t="s">
         <v>1871</v>
@@ -49833,10 +49767,10 @@
         <v>96</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>110</v>
@@ -49860,7 +49794,7 @@
         <v>106</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>391</v>
@@ -49902,7 +49836,7 @@
         <v>18</v>
       </c>
       <c r="BD210" s="1" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="BX210" s="1">
         <v>0</v>
@@ -49917,10 +49851,10 @@
         <v>111</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="CG210" s="1" t="s">
         <v>129</v>
@@ -49940,13 +49874,13 @@
         <v>88</v>
       </c>
       <c r="C211" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>2549</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>2550</v>
-      </c>
       <c r="E211" s="1" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>111</v>
@@ -49958,16 +49892,16 @@
         <v>94</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>110</v>
@@ -49991,7 +49925,7 @@
         <v>106</v>
       </c>
       <c r="AG211" s="1" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="AH211" s="1" t="s">
         <v>391</v>
@@ -50033,13 +49967,13 @@
         <v>18</v>
       </c>
       <c r="BD211" s="1" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="BX211" s="1">
         <v>0</v>
       </c>
       <c r="BZ211" s="1" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="CA211" s="1" t="s">
         <v>123</v>
@@ -50048,10 +49982,10 @@
         <v>111</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="CG211" s="1" t="s">
         <v>129</v>
@@ -50095,10 +50029,10 @@
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>110</v>
@@ -50122,7 +50056,7 @@
         <v>106</v>
       </c>
       <c r="AG212" s="1" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="AH212" s="1" t="s">
         <v>391</v>
@@ -50164,7 +50098,7 @@
         <v>18</v>
       </c>
       <c r="BD212" s="1" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="BX212" s="1">
         <v>0</v>
@@ -50179,10 +50113,10 @@
         <v>111</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="CG212" s="1" t="s">
         <v>129</v>
@@ -50208,7 +50142,7 @@
         <v>90</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>92</v>
@@ -50220,16 +50154,16 @@
         <v>94</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>110</v>
@@ -50295,13 +50229,13 @@
         <v>18</v>
       </c>
       <c r="BD213" s="1" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="BX213" s="1">
         <v>0</v>
       </c>
       <c r="BZ213" s="1" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="CA213" s="1" t="s">
         <v>123</v>
@@ -50310,10 +50244,10 @@
         <v>111</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="CG213" s="1" t="s">
         <v>129</v>
@@ -50357,10 +50291,10 @@
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>110</v>
@@ -50426,7 +50360,7 @@
         <v>18</v>
       </c>
       <c r="BD214" s="1" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="BX214" s="1">
         <v>0</v>
@@ -50441,10 +50375,10 @@
         <v>111</v>
       </c>
       <c r="CC214" s="1" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="CE214" s="1" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="CG214" s="1" t="s">
         <v>129</v>
@@ -50470,7 +50404,7 @@
         <v>90</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>92</v>
@@ -50482,16 +50416,16 @@
         <v>94</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>110</v>
@@ -50557,13 +50491,13 @@
         <v>18</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="BX215" s="1">
         <v>0</v>
       </c>
       <c r="BZ215" s="1" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="CA215" s="1" t="s">
         <v>123</v>
@@ -50572,10 +50506,10 @@
         <v>111</v>
       </c>
       <c r="CC215" s="1" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="CE215" s="1" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="CG215" s="1" t="s">
         <v>129</v>
@@ -50619,10 +50553,10 @@
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>110</v>
@@ -50688,7 +50622,7 @@
         <v>18</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="BX216" s="1">
         <v>0</v>
@@ -50703,10 +50637,10 @@
         <v>111</v>
       </c>
       <c r="CC216" s="1" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="CE216" s="1" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="CG216" s="1" t="s">
         <v>129</v>
@@ -50750,19 +50684,19 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2921</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2922</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2923</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="Q217" s="3">
         <v>26043</v>
@@ -50785,12 +50719,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2888</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>106</v>
       </c>
@@ -50843,13 +50772,13 @@
         <v>20</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>395</v>
@@ -50864,13 +50793,13 @@
         <v>102</v>
       </c>
       <c r="BR217" s="1" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="BS217" s="3">
         <v>36306</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>121</v>
@@ -50888,16 +50817,16 @@
         <v>111</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="CD217" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="CE217" s="1" t="s">
         <v>2929</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CG217" s="1" t="s">
         <v>2930</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2931</v>
-      </c>
-      <c r="CG217" s="1" t="s">
-        <v>2932</v>
       </c>
       <c r="CH217" s="1" t="s">
         <v>402</v>
@@ -50938,19 +50867,19 @@
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2933</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2934</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2935</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P218" s="1" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="Q218" s="3">
         <v>29945</v>
@@ -50973,12 +50902,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2888</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>106</v>
       </c>
@@ -51034,13 +50958,13 @@
         <v>20</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>117</v>
@@ -51049,7 +50973,7 @@
         <v>105</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>121</v>
@@ -51067,16 +50991,16 @@
         <v>111</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="CG218" s="1" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="CH218" s="1" t="s">
         <v>129</v>
@@ -51117,19 +51041,19 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2943</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2944</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2945</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P219" s="1" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="Q219" s="3">
         <v>29034</v>
@@ -51155,12 +51079,7 @@
       <c r="AB219" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2888</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>106</v>
       </c>
@@ -51213,13 +51132,13 @@
         <v>20</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>395</v>
@@ -51234,13 +51153,13 @@
         <v>102</v>
       </c>
       <c r="BR219" s="1" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="BS219" s="3">
         <v>38234</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>121</v>
@@ -51258,16 +51177,16 @@
         <v>111</v>
       </c>
       <c r="CC219" s="1" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="CD219" s="1" t="s">
         <v>1073</v>
       </c>
       <c r="CE219" s="1" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
       <c r="CG219" s="1" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="CH219" s="1" t="s">
         <v>402</v>
@@ -51308,19 +51227,19 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2954</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2955</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2956</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="Q220" s="3">
         <v>29062</v>
@@ -51343,12 +51262,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2888</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>106</v>
       </c>
@@ -51404,13 +51318,13 @@
         <v>20</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="BG220" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2959</v>
+        <v>2957</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>1111</v>
@@ -51422,7 +51336,7 @@
         <v>105</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2960</v>
+        <v>2958</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>121</v>
@@ -51440,16 +51354,16 @@
         <v>111</v>
       </c>
       <c r="CC220" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="CD220" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="CE220" s="1" t="s">
         <v>2961</v>
       </c>
-      <c r="CD220" s="1" t="s">
+      <c r="CG220" s="1" t="s">
         <v>2962</v>
-      </c>
-      <c r="CE220" s="1" t="s">
-        <v>2963</v>
-      </c>
-      <c r="CG220" s="1" t="s">
-        <v>2964</v>
       </c>
       <c r="CH220" s="1" t="s">
         <v>1117</v>
@@ -51490,19 +51404,19 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2965</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2966</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2967</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P221" s="1" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
       <c r="Q221" s="3">
         <v>29181</v>
@@ -51525,12 +51439,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2888</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>106</v>
       </c>
@@ -51583,13 +51492,13 @@
         <v>20</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2969</v>
+        <v>2967</v>
       </c>
       <c r="BG221" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2970</v>
+        <v>2968</v>
       </c>
       <c r="BI221" s="1" t="s">
         <v>825</v>
@@ -51604,13 +51513,13 @@
         <v>236</v>
       </c>
       <c r="BR221" s="1" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
       <c r="BS221" s="3">
         <v>37069</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>121</v>
@@ -51631,13 +51540,13 @@
         <v>802</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="CE221" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="CG221" s="1" t="s">
         <v>2973</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2974</v>
-      </c>
-      <c r="CG221" s="1" t="s">
-        <v>2975</v>
       </c>
       <c r="CH221" s="1" t="s">
         <v>831</v>
@@ -51678,19 +51587,19 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2974</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="N222" s="1" t="s">
         <v>2976</v>
-      </c>
-      <c r="L222" s="1" t="s">
-        <v>2977</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2978</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="Q222" s="3">
         <v>30033</v>
@@ -51713,12 +51622,7 @@
       <c r="AA222" s="1">
         <v>0</v>
       </c>
-      <c r="AC222" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD222" s="1" t="s">
-        <v>2888</v>
-      </c>
+      <c r="AC222" s="3"/>
       <c r="AF222" s="1" t="s">
         <v>106</v>
       </c>
@@ -51774,13 +51678,13 @@
         <v>20</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2981</v>
+        <v>2979</v>
       </c>
       <c r="BI222" s="1" t="s">
         <v>1111</v>
@@ -51792,7 +51696,7 @@
         <v>105</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2982</v>
+        <v>2980</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>121</v>
@@ -51810,16 +51714,16 @@
         <v>111</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2981</v>
+      </c>
+      <c r="CD222" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="CE222" s="1" t="s">
         <v>2983</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CG222" s="1" t="s">
         <v>2984</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2985</v>
-      </c>
-      <c r="CG222" s="1" t="s">
-        <v>2986</v>
       </c>
       <c r="CH222" s="1" t="s">
         <v>1117</v>
@@ -51860,19 +51764,19 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2985</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>2986</v>
+      </c>
+      <c r="N223" s="1" t="s">
         <v>2987</v>
-      </c>
-      <c r="L223" s="1" t="s">
-        <v>2988</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2989</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="Q223" s="3">
         <v>26843</v>
@@ -51895,12 +51799,7 @@
       <c r="AA223" s="1">
         <v>0</v>
       </c>
-      <c r="AC223" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD223" s="1" t="s">
-        <v>2991</v>
-      </c>
+      <c r="AC223" s="3"/>
       <c r="AF223" s="1" t="s">
         <v>106</v>
       </c>
@@ -51947,7 +51846,7 @@
         <v>111</v>
       </c>
       <c r="AZ223" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="BB223" s="1">
         <v>10</v>
@@ -51956,16 +51855,16 @@
         <v>20</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="BI223" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>117</v>
@@ -51977,13 +51876,13 @@
         <v>236</v>
       </c>
       <c r="BR223" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="BS223" s="3">
         <v>35125</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>121</v>
@@ -52001,19 +51900,19 @@
         <v>111</v>
       </c>
       <c r="CC223" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="CD223" s="1" t="s">
         <v>124</v>
       </c>
       <c r="CE223" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="CG223" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="CH223" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="CI223" s="1" t="s">
         <v>129</v>
@@ -52051,19 +51950,19 @@
         <v>498</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P224" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="Q224" s="3">
         <v>31362</v>
@@ -52141,7 +52040,7 @@
         <v>20</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>114</v>
@@ -52150,7 +52049,7 @@
         <v>117</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>121</v>
@@ -52168,13 +52067,13 @@
         <v>92</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="CE224" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="CG224" s="1" t="s">
         <v>129</v>
@@ -52218,19 +52117,19 @@
         <v>96</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P225" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="Q225" s="3">
         <v>31362</v>
@@ -52308,7 +52207,7 @@
         <v>20</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="BG225" s="1" t="s">
         <v>114</v>
@@ -52317,7 +52216,7 @@
         <v>117</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>121</v>
@@ -52338,10 +52237,10 @@
         <v>585</v>
       </c>
       <c r="CD225" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="CG225" s="1" t="s">
         <v>129</v>
@@ -52385,19 +52284,19 @@
         <v>96</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P226" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="Q226" s="3">
         <v>25903</v>
@@ -52478,19 +52377,19 @@
         <v>20</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="BG226" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>121</v>
@@ -52508,16 +52407,16 @@
         <v>111</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="CD226" s="1" t="s">
+        <v>3024</v>
+      </c>
+      <c r="CE226" s="1" t="s">
+        <v>3025</v>
+      </c>
+      <c r="CG226" s="1" t="s">
         <v>3026</v>
-      </c>
-      <c r="CD226" s="1" t="s">
-        <v>3027</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>3028</v>
-      </c>
-      <c r="CG226" s="1" t="s">
-        <v>3029</v>
       </c>
       <c r="CH226" s="1" t="s">
         <v>129</v>
@@ -52561,10 +52460,10 @@
         <v>263</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="N227" s="1" t="s">
         <v>265</v>
@@ -52594,7 +52493,7 @@
         <v>42582</v>
       </c>
       <c r="AD227" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="AF227" s="1" t="s">
         <v>106</v>
@@ -52651,13 +52550,13 @@
         <v>0</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="BI227" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>117</v>
@@ -52702,10 +52601,10 @@
         <v>277</v>
       </c>
       <c r="CG227" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="CH227" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="CI227" s="1" t="s">
         <v>129</v>
@@ -52725,7 +52624,7 @@
         <v>191</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>92</v>
@@ -52737,22 +52636,22 @@
         <v>94</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="Q228" s="3">
         <v>17060</v>
@@ -52785,13 +52684,13 @@
         <v>42628</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG228" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="AH228" s="1" t="s">
         <v>138</v>
@@ -52836,22 +52735,22 @@
         <v>111</v>
       </c>
       <c r="AZ228" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="BB228" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC228" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD228" s="1" t="s">
+        <v>3043</v>
+      </c>
+      <c r="BH228" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="BI228" s="1" t="s">
         <v>3045</v>
-      </c>
-      <c r="BB228" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC228" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD228" s="1" t="s">
-        <v>3046</v>
-      </c>
-      <c r="BH228" s="1" t="s">
-        <v>3047</v>
-      </c>
-      <c r="BI228" s="1" t="s">
-        <v>3048</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>117</v>
@@ -52860,7 +52759,7 @@
         <v>105</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>121</v>
@@ -52869,7 +52768,7 @@
         <v>0</v>
       </c>
       <c r="BZ228" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="CA228" s="1" t="s">
         <v>123</v>
@@ -52884,13 +52783,13 @@
         <v>125</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="CG228" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="CH228" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="CI228" s="1" t="s">
         <v>129</v>
@@ -52904,13 +52803,13 @@
         <v>88</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>111</v>
@@ -52922,22 +52821,22 @@
         <v>94</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="Q229" s="3">
         <v>26864</v>
@@ -52967,7 +52866,7 @@
         <v>42735</v>
       </c>
       <c r="AD229" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="AF229" s="1" t="s">
         <v>106</v>
@@ -53021,10 +52920,10 @@
         <v>0</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>117</v>
@@ -53036,13 +52935,13 @@
         <v>236</v>
       </c>
       <c r="BR229" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="BS229" s="3">
         <v>102</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>121</v>
@@ -53054,7 +52953,7 @@
         <v>110</v>
       </c>
       <c r="BZ229" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="CA229" s="1" t="s">
         <v>123</v>
@@ -53063,16 +52962,16 @@
         <v>111</v>
       </c>
       <c r="CC229" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="CD229" s="1" t="s">
+        <v>3063</v>
+      </c>
+      <c r="CE229" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="CG229" s="1" t="s">
         <v>3065</v>
-      </c>
-      <c r="CD229" s="1" t="s">
-        <v>3066</v>
-      </c>
-      <c r="CE229" s="1" t="s">
-        <v>3067</v>
-      </c>
-      <c r="CG229" s="1" t="s">
-        <v>3068</v>
       </c>
       <c r="CH229" s="1" t="s">
         <v>129</v>
@@ -53113,16 +53012,16 @@
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="Q230" s="3">
         <v>25379</v>
@@ -53152,7 +53051,7 @@
         <v>39800</v>
       </c>
       <c r="AD230" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="AF230" s="1" t="s">
         <v>249</v>
@@ -53206,10 +53105,10 @@
         <v>0</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>117</v>
@@ -53221,13 +53120,13 @@
         <v>1744</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="BS230" s="3">
         <v>35915</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>121</v>
@@ -53257,10 +53156,10 @@
         <v>450</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="CG230" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="CH230" s="1" t="s">
         <v>129</v>
@@ -53283,7 +53182,7 @@
         <v>90</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>111</v>
@@ -53295,22 +53194,22 @@
         <v>94</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="Q231" s="3">
         <v>17470</v>
@@ -53340,7 +53239,7 @@
         <v>43100</v>
       </c>
       <c r="AD231" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="AF231" s="1" t="s">
         <v>106</v>
@@ -53397,10 +53296,10 @@
         <v>0</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>117</v>
@@ -53409,7 +53308,7 @@
         <v>105</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>121</v>
@@ -53433,16 +53332,16 @@
         <v>111</v>
       </c>
       <c r="CC231" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="CD231" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="CG231" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>129</v>
@@ -53465,7 +53364,7 @@
         <v>90</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>111</v>
@@ -53477,22 +53376,22 @@
         <v>94</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="Q232" s="3">
         <v>23356</v>
@@ -53519,7 +53418,7 @@
         <v>43105</v>
       </c>
       <c r="AD232" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="AF232" s="1" t="s">
         <v>106</v>
@@ -53573,10 +53472,10 @@
         <v>0</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>117</v>
@@ -53588,13 +53487,13 @@
         <v>102</v>
       </c>
       <c r="BR232" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="BS232" s="3">
         <v>34412</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>121</v>
@@ -53603,7 +53502,7 @@
         <v>0</v>
       </c>
       <c r="BZ232" s="1" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="CA232" s="1" t="s">
         <v>123</v>
@@ -53612,16 +53511,16 @@
         <v>111</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>2434</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="CG232" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="CH232" s="1" t="s">
         <v>129</v>
@@ -53638,13 +53537,13 @@
         <v>88</v>
       </c>
       <c r="C233" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="D233" s="1" t="s">
         <v>2549</v>
       </c>
-      <c r="D233" s="1" t="s">
-        <v>2550</v>
-      </c>
       <c r="E233" s="1" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>92</v>
@@ -53656,22 +53555,22 @@
         <v>94</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="Q233" s="3">
         <v>17726</v>
@@ -53704,7 +53603,7 @@
         <v>43312</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>249</v>
@@ -53755,7 +53654,7 @@
         <v>111</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="BB233" s="1">
         <v>0</v>
@@ -53764,10 +53663,10 @@
         <v>0</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>117</v>
@@ -53776,7 +53675,7 @@
         <v>105</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>121</v>
@@ -53785,7 +53684,7 @@
         <v>0</v>
       </c>
       <c r="BZ233" s="1" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="CA233" s="1" t="s">
         <v>123</v>
@@ -53794,16 +53693,16 @@
         <v>111</v>
       </c>
       <c r="CC233" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="CD233" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="CE233" s="1" t="s">
         <v>949</v>
       </c>
       <c r="CG233" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="CH233" s="1" t="s">
         <v>129</v>
@@ -53826,7 +53725,7 @@
         <v>90</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>92</v>
@@ -53838,22 +53737,22 @@
         <v>94</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="Q234" s="3">
         <v>17041</v>
@@ -53880,7 +53779,7 @@
         <v>42735</v>
       </c>
       <c r="AD234" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="AF234" s="1" t="s">
         <v>106</v>
@@ -53937,7 +53836,7 @@
         <v>0</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>117</v>
@@ -53946,7 +53845,7 @@
         <v>105</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>121</v>
@@ -53958,7 +53857,7 @@
         <v>110</v>
       </c>
       <c r="BZ234" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="CA234" s="1" t="s">
         <v>123</v>
@@ -53967,13 +53866,13 @@
         <v>111</v>
       </c>
       <c r="CC234" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="CD234" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="CG234" s="1" t="s">
         <v>129</v>
@@ -53993,13 +53892,13 @@
         <v>88</v>
       </c>
       <c r="C235" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="D235" s="1" t="s">
         <v>2549</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>2550</v>
-      </c>
       <c r="E235" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>111</v>
@@ -54011,22 +53910,22 @@
         <v>94</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="Q235" s="3">
         <v>30147</v>
@@ -54049,17 +53948,12 @@
       <c r="AA235" s="1">
         <v>0</v>
       </c>
-      <c r="AC235" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD235" s="1" t="s">
-        <v>2888</v>
-      </c>
+      <c r="AC235" s="3"/>
       <c r="AF235" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG235" s="1" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="AH235" s="1" t="s">
         <v>391</v>
@@ -54107,10 +54001,10 @@
         <v>0</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>117</v>
@@ -54122,13 +54016,13 @@
         <v>102</v>
       </c>
       <c r="BR235" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="BS235" s="3">
         <v>37124</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>121</v>
@@ -54137,7 +54031,7 @@
         <v>0</v>
       </c>
       <c r="BZ235" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="CA235" s="1" t="s">
         <v>123</v>
@@ -54146,16 +54040,16 @@
         <v>111</v>
       </c>
       <c r="CC235" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="CD235" s="1" t="s">
         <v>1219</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="CG235" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>129</v>
@@ -54196,16 +54090,16 @@
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="Q236" s="3">
         <v>17821</v>
@@ -54241,13 +54135,13 @@
         <v>43388</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG236" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="AH236" s="1" t="s">
         <v>1321</v>
@@ -54292,7 +54186,7 @@
         <v>111</v>
       </c>
       <c r="AZ236" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="BB236" s="1">
         <v>0</v>
@@ -54301,10 +54195,10 @@
         <v>0</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>117</v>
@@ -54313,7 +54207,7 @@
         <v>105</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>121</v>
@@ -54331,16 +54225,16 @@
         <v>111</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="CD236" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="CE236" s="1" t="s">
         <v>529</v>
       </c>
       <c r="CG236" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="CH236" s="1" t="s">
         <v>129</v>
@@ -54354,10 +54248,10 @@
         <v>87</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>1319</v>
@@ -54372,7 +54266,7 @@
         <v>93</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="I237" s="1" t="s">
         <v>1319</v>
@@ -54381,13 +54275,13 @@
         <v>152</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>100</v>
@@ -54441,7 +54335,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="AO237" s="1">
         <v>0</v>
@@ -54474,19 +54368,19 @@
         <v>20</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="BG237" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>121</v>
@@ -54504,16 +54398,16 @@
         <v>111</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>319</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="CG237" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="CH237" s="1" t="s">
         <v>129</v>
@@ -54527,10 +54421,10 @@
         <v>87</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1319</v>
@@ -54545,7 +54439,7 @@
         <v>93</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>1319</v>
@@ -54554,13 +54448,13 @@
         <v>152</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>100</v>
@@ -54611,7 +54505,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="AO238" s="1">
         <v>0</v>
@@ -54647,19 +54541,19 @@
         <v>20</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="BG238" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>121</v>
@@ -54686,10 +54580,10 @@
         <v>1139</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="CG238" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="CH238" s="1" t="s">
         <v>129</v>
@@ -54703,10 +54597,10 @@
         <v>87</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1319</v>
@@ -54721,7 +54615,7 @@
         <v>93</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>1319</v>
@@ -54730,13 +54624,13 @@
         <v>152</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>100</v>
@@ -54787,7 +54681,7 @@
         <v>0</v>
       </c>
       <c r="AN239" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="AO239" s="1">
         <v>0</v>
@@ -54823,19 +54717,19 @@
         <v>20</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="BG239" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>121</v>
@@ -54856,16 +54750,16 @@
         <v>111</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>3168</v>
+      </c>
+      <c r="CD239" s="1" t="s">
+        <v>3169</v>
+      </c>
+      <c r="CE239" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="CG239" s="1" t="s">
         <v>3171</v>
-      </c>
-      <c r="CD239" s="1" t="s">
-        <v>3172</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>3173</v>
-      </c>
-      <c r="CG239" s="1" t="s">
-        <v>3174</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>129</v>
@@ -54879,10 +54773,10 @@
         <v>87</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1319</v>
@@ -54897,7 +54791,7 @@
         <v>93</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>1319</v>
@@ -54906,13 +54800,13 @@
         <v>152</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>100</v>
@@ -54999,19 +54893,19 @@
         <v>20</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="BG240" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>121</v>
@@ -55032,7 +54926,7 @@
         <v>111</v>
       </c>
       <c r="CC240" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="CD240" s="1" t="s">
         <v>628</v>
@@ -55041,7 +54935,7 @@
         <v>529</v>
       </c>
       <c r="CG240" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="CH240" s="1" t="s">
         <v>129</v>
@@ -55055,10 +54949,10 @@
         <v>87</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1319</v>
@@ -55073,7 +54967,7 @@
         <v>93</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>1319</v>
@@ -55082,13 +54976,13 @@
         <v>152</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>100</v>
@@ -55142,7 +55036,7 @@
         <v>0</v>
       </c>
       <c r="AN241" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="AO241" s="1">
         <v>0</v>
@@ -55178,19 +55072,19 @@
         <v>20</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="BG241" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>121</v>
@@ -55214,13 +55108,13 @@
         <v>510</v>
       </c>
       <c r="CD241" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="CE241" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="CG241" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="CH241" s="1" t="s">
         <v>129</v>
@@ -55234,10 +55128,10 @@
         <v>87</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1319</v>
@@ -55252,7 +55146,7 @@
         <v>93</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>1319</v>
@@ -55261,13 +55155,13 @@
         <v>152</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>100</v>
@@ -55354,19 +55248,19 @@
         <v>20</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="BG242" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>121</v>
@@ -55387,16 +55281,16 @@
         <v>111</v>
       </c>
       <c r="CC242" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="CD242" s="1" t="s">
         <v>643</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="CG242" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>129</v>
@@ -55410,10 +55304,10 @@
         <v>87</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1319</v>
@@ -55428,7 +55322,7 @@
         <v>93</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>1319</v>
@@ -55437,19 +55331,19 @@
         <v>152</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P243" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="Q243" s="3">
         <v>23289</v>
@@ -55479,7 +55373,7 @@
         <v>106</v>
       </c>
       <c r="AG243" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="AH243" s="1" t="s">
         <v>1321</v>
@@ -55497,7 +55391,7 @@
         <v>0</v>
       </c>
       <c r="AN243" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="AO243" s="1">
         <v>0</v>
@@ -55533,19 +55427,19 @@
         <v>20</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="BG243" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>121</v>
@@ -55566,16 +55460,16 @@
         <v>111</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>1060</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="CG243" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="CH243" s="1" t="s">
         <v>129</v>
@@ -55589,10 +55483,10 @@
         <v>87</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1319</v>
@@ -55607,7 +55501,7 @@
         <v>93</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>1319</v>
@@ -55616,13 +55510,13 @@
         <v>152</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>100</v>
@@ -55676,7 +55570,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="AO244" s="1">
         <v>0</v>
@@ -55712,19 +55606,19 @@
         <v>20</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="BG244" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>121</v>
@@ -55748,13 +55642,13 @@
         <v>1045</v>
       </c>
       <c r="CD244" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="CG244" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>129</v>
@@ -55768,10 +55662,10 @@
         <v>87</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1319</v>
@@ -55786,7 +55680,7 @@
         <v>93</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>1319</v>
@@ -55795,13 +55689,13 @@
         <v>152</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
@@ -55855,7 +55749,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="AO245" s="1">
         <v>0</v>
@@ -55891,19 +55785,19 @@
         <v>20</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="BG245" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>121</v>
@@ -55930,10 +55824,10 @@
         <v>2256</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="CG245" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>129</v>
@@ -55947,10 +55841,10 @@
         <v>87</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1319</v>
@@ -55965,7 +55859,7 @@
         <v>93</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>1319</v>
@@ -55974,13 +55868,13 @@
         <v>152</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="L246" s="1" t="s">
         <v>2373</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
@@ -56016,7 +55910,7 @@
         <v>106</v>
       </c>
       <c r="AG246" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="AH246" s="1" t="s">
         <v>1321</v>
@@ -56031,7 +55925,7 @@
         <v>0</v>
       </c>
       <c r="AN246" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="AO246" s="1">
         <v>0</v>
@@ -56064,19 +55958,19 @@
         <v>20</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="BG246" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>121</v>
@@ -56094,16 +55988,16 @@
         <v>111</v>
       </c>
       <c r="CC246" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="CD246" s="1" t="s">
+        <v>3233</v>
+      </c>
+      <c r="CE246" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="CG246" s="1" t="s">
         <v>3235</v>
-      </c>
-      <c r="CD246" s="1" t="s">
-        <v>3236</v>
-      </c>
-      <c r="CE246" s="1" t="s">
-        <v>3237</v>
-      </c>
-      <c r="CG246" s="1" t="s">
-        <v>3238</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>129</v>
@@ -56117,10 +56011,10 @@
         <v>87</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1319</v>
@@ -56135,7 +56029,7 @@
         <v>93</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>1319</v>
@@ -56144,13 +56038,13 @@
         <v>152</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="L247" s="1" t="s">
         <v>2382</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
@@ -56231,19 +56125,19 @@
         <v>20</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="BG247" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>121</v>
@@ -56264,16 +56158,16 @@
         <v>2307</v>
       </c>
       <c r="CC247" s="1" t="s">
+        <v>3241</v>
+      </c>
+      <c r="CD247" s="1" t="s">
+        <v>3242</v>
+      </c>
+      <c r="CE247" s="1" t="s">
+        <v>3243</v>
+      </c>
+      <c r="CG247" s="1" t="s">
         <v>3244</v>
-      </c>
-      <c r="CD247" s="1" t="s">
-        <v>3245</v>
-      </c>
-      <c r="CE247" s="1" t="s">
-        <v>3246</v>
-      </c>
-      <c r="CG247" s="1" t="s">
-        <v>3247</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>129</v>
@@ -56287,10 +56181,10 @@
         <v>87</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1319</v>
@@ -56305,7 +56199,7 @@
         <v>93</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>1319</v>
@@ -56314,13 +56208,13 @@
         <v>152</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
@@ -56404,19 +56298,19 @@
         <v>20</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="BG248" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>121</v>
@@ -56437,13 +56331,13 @@
         <v>1260</v>
       </c>
       <c r="CD248" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="CE248" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="CG248" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>129</v>
@@ -56457,10 +56351,10 @@
         <v>87</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1319</v>
@@ -56475,7 +56369,7 @@
         <v>93</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>1319</v>
@@ -56484,13 +56378,13 @@
         <v>152</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
@@ -56541,7 +56435,7 @@
         <v>0</v>
       </c>
       <c r="AN249" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="AO249" s="1">
         <v>0</v>
@@ -56577,19 +56471,19 @@
         <v>20</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="BG249" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>121</v>
@@ -56610,16 +56504,16 @@
         <v>111</v>
       </c>
       <c r="CC249" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="CG249" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>129</v>
@@ -56633,10 +56527,10 @@
         <v>87</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1319</v>
@@ -56651,7 +56545,7 @@
         <v>93</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>1319</v>
@@ -56660,13 +56554,13 @@
         <v>152</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
@@ -56720,7 +56614,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="AO250" s="1">
         <v>0</v>
@@ -56756,19 +56650,19 @@
         <v>20</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="BG250" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>121</v>
@@ -56789,16 +56683,16 @@
         <v>111</v>
       </c>
       <c r="CC250" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="CD250" s="1" t="s">
+        <v>3271</v>
+      </c>
+      <c r="CE250" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="CG250" s="1" t="s">
         <v>3273</v>
-      </c>
-      <c r="CD250" s="1" t="s">
-        <v>3274</v>
-      </c>
-      <c r="CE250" s="1" t="s">
-        <v>3275</v>
-      </c>
-      <c r="CG250" s="1" t="s">
-        <v>3276</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>129</v>
@@ -56812,10 +56706,10 @@
         <v>87</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1319</v>
@@ -56830,7 +56724,7 @@
         <v>93</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1319</v>
@@ -56839,13 +56733,13 @@
         <v>152</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
@@ -56899,7 +56793,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="AO251" s="1">
         <v>0</v>
@@ -56935,19 +56829,19 @@
         <v>20</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="BG251" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>121</v>
@@ -56968,16 +56862,16 @@
         <v>111</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>3280</v>
+      </c>
+      <c r="CD251" s="1" t="s">
+        <v>3281</v>
+      </c>
+      <c r="CE251" s="1" t="s">
+        <v>3282</v>
+      </c>
+      <c r="CG251" s="1" t="s">
         <v>3283</v>
-      </c>
-      <c r="CD251" s="1" t="s">
-        <v>3284</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>3285</v>
-      </c>
-      <c r="CG251" s="1" t="s">
-        <v>3286</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>129</v>
@@ -56991,10 +56885,10 @@
         <v>87</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1319</v>
@@ -57009,7 +56903,7 @@
         <v>93</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>1319</v>
@@ -57018,13 +56912,13 @@
         <v>152</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>100</v>
@@ -57117,7 +57011,7 @@
         <v>20</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="BG252" s="1" t="s">
         <v>114</v>
@@ -57144,10 +57038,10 @@
         <v>111</v>
       </c>
       <c r="CC252" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="CD252" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="CE252" s="1" t="s">
         <v>223</v>
@@ -57167,10 +57061,10 @@
         <v>87</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1319</v>
@@ -57185,7 +57079,7 @@
         <v>93</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>1319</v>
@@ -57194,13 +57088,13 @@
         <v>152</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
@@ -57254,7 +57148,7 @@
         <v>0</v>
       </c>
       <c r="AN253" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="AO253" s="1">
         <v>0</v>
@@ -57290,25 +57184,25 @@
         <v>20</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>121</v>
       </c>
       <c r="BW253" s="1" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="BX253" s="1">
         <v>0</v>
@@ -57326,16 +57220,16 @@
         <v>111</v>
       </c>
       <c r="CC253" s="1" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="CD253" s="1" t="s">
         <v>1328</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="CG253" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="CH253" s="1" t="s">
         <v>129</v>
@@ -57349,10 +57243,10 @@
         <v>87</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1319</v>
@@ -57367,7 +57261,7 @@
         <v>93</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>1319</v>
@@ -57376,13 +57270,13 @@
         <v>152</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
@@ -57433,7 +57327,7 @@
         <v>0</v>
       </c>
       <c r="AN254" s="1" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="AO254" s="1">
         <v>0</v>
@@ -57469,19 +57363,19 @@
         <v>20</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="BG254" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>121</v>
@@ -57502,16 +57396,16 @@
         <v>111</v>
       </c>
       <c r="CC254" s="1" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="CD254" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="CG254" s="1" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>129</v>
@@ -57525,10 +57419,10 @@
         <v>87</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1319</v>
@@ -57543,7 +57437,7 @@
         <v>93</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>1319</v>
@@ -57552,13 +57446,13 @@
         <v>152</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>100</v>
@@ -57585,7 +57479,7 @@
         <v>0</v>
       </c>
       <c r="AG255" s="1" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="AH255" s="1" t="s">
         <v>391</v>
@@ -57600,7 +57494,7 @@
         <v>0</v>
       </c>
       <c r="AN255" s="1" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="AO255" s="1">
         <v>0</v>
@@ -57630,19 +57524,19 @@
         <v>20</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="BG255" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>121</v>
@@ -57660,16 +57554,16 @@
         <v>111</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="CD255" s="1" t="s">
         <v>319</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="CG255" s="1" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>129</v>
@@ -57683,10 +57577,10 @@
         <v>87</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1319</v>
@@ -57701,7 +57595,7 @@
         <v>93</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>1319</v>
@@ -57710,13 +57604,13 @@
         <v>152</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>100</v>
@@ -57800,19 +57694,19 @@
         <v>20</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="BG256" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3324</v>
+        <v>3321</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>121</v>
@@ -57830,16 +57724,16 @@
         <v>111</v>
       </c>
       <c r="CC256" s="1" t="s">
+        <v>3323</v>
+      </c>
+      <c r="CD256" s="1" t="s">
+        <v>3324</v>
+      </c>
+      <c r="CE256" s="1" t="s">
+        <v>3325</v>
+      </c>
+      <c r="CG256" s="1" t="s">
         <v>3326</v>
-      </c>
-      <c r="CD256" s="1" t="s">
-        <v>3327</v>
-      </c>
-      <c r="CE256" s="1" t="s">
-        <v>3328</v>
-      </c>
-      <c r="CG256" s="1" t="s">
-        <v>3329</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>129</v>
@@ -57853,10 +57747,10 @@
         <v>87</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1319</v>
@@ -57871,7 +57765,7 @@
         <v>93</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>1319</v>
@@ -57880,13 +57774,13 @@
         <v>152</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>100</v>
@@ -57973,19 +57867,19 @@
         <v>20</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>121</v>
@@ -58003,16 +57897,16 @@
         <v>111</v>
       </c>
       <c r="CC257" s="1" t="s">
+        <v>3333</v>
+      </c>
+      <c r="CD257" s="1" t="s">
+        <v>3334</v>
+      </c>
+      <c r="CE257" s="1" t="s">
+        <v>3335</v>
+      </c>
+      <c r="CG257" s="1" t="s">
         <v>3336</v>
-      </c>
-      <c r="CD257" s="1" t="s">
-        <v>3337</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>3338</v>
-      </c>
-      <c r="CG257" s="1" t="s">
-        <v>3339</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>129</v>
@@ -58026,10 +57920,10 @@
         <v>87</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1319</v>
@@ -58044,7 +57938,7 @@
         <v>93</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>1319</v>
@@ -58053,13 +57947,13 @@
         <v>152</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>100</v>
@@ -58068,7 +57962,7 @@
         <v>111</v>
       </c>
       <c r="Q258" t="s">
-        <v>3343</v>
+        <v>3340</v>
       </c>
       <c r="R258" s="1" t="s">
         <v>136</v>
@@ -58110,7 +58004,7 @@
         <v>0</v>
       </c>
       <c r="AN258" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="AO258" s="1">
         <v>0</v>
@@ -58143,19 +58037,19 @@
         <v>20</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="BG258" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>117</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>121</v>
@@ -58173,16 +58067,16 @@
         <v>111</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>3344</v>
+      </c>
+      <c r="CD258" s="1" t="s">
+        <v>3345</v>
+      </c>
+      <c r="CE258" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="CG258" s="1" t="s">
         <v>3347</v>
-      </c>
-      <c r="CD258" s="1" t="s">
-        <v>3348</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>3349</v>
-      </c>
-      <c r="CG258" s="1" t="s">
-        <v>3350</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>129</v>
@@ -58223,16 +58117,16 @@
         <v>96</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3351</v>
+        <v>3348</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>100</v>
@@ -58265,7 +58159,7 @@
         <v>43980</v>
       </c>
       <c r="AD259" s="1" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
       <c r="AF259" s="1" t="s">
         <v>106</v>
@@ -58319,10 +58213,10 @@
         <v>20</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>117</v>
@@ -58334,13 +58228,13 @@
         <v>1744</v>
       </c>
       <c r="BR259" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="BS259" s="3">
         <v>35915</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>121</v>
@@ -58364,10 +58258,10 @@
         <v>450</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="CG259" s="1" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>129</v>
@@ -58408,16 +58302,16 @@
         <v>96</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>100</v>
@@ -58450,7 +58344,7 @@
         <v>44008</v>
       </c>
       <c r="AD260" s="1" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="AF260" s="1" t="s">
         <v>106</v>
@@ -58507,10 +58401,10 @@
         <v>20</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>117</v>
@@ -58519,7 +58413,7 @@
         <v>105</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>121</v>
@@ -58543,13 +58437,13 @@
         <v>348</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>3364</v>
+        <v>3361</v>
       </c>
       <c r="CG260" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="CH260" s="1" t="s">
         <v>129</v>
@@ -58590,19 +58484,19 @@
         <v>96</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3365</v>
+        <v>3362</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P261" s="1" t="s">
-        <v>3366</v>
+        <v>3363</v>
       </c>
       <c r="Q261" s="3">
         <v>28577</v>
@@ -58632,7 +58526,7 @@
         <v>106</v>
       </c>
       <c r="AG261" s="1" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="AH261" s="1" t="s">
         <v>60</v>
@@ -58683,13 +58577,13 @@
         <v>20</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="BG261" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>117</v>
@@ -58698,7 +58592,7 @@
         <v>105</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>121</v>
@@ -58719,13 +58613,13 @@
         <v>348</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>3364</v>
+        <v>3361</v>
       </c>
       <c r="CG261" s="1" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>129</v>
@@ -58742,7 +58636,7 @@
         <v>88</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>497</v>
@@ -58766,19 +58660,19 @@
         <v>96</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P262" s="1" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="Q262" s="3">
         <v>23039</v>
@@ -58856,13 +58750,13 @@
         <v>20</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="BG262" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
       <c r="BI262" s="1" t="s">
         <v>201</v>
@@ -58877,13 +58771,13 @@
         <v>236</v>
       </c>
       <c r="BR262" s="1" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
       <c r="BS262" s="3">
         <v>34307</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>121</v>
@@ -58892,7 +58786,7 @@
         <v>0</v>
       </c>
       <c r="BZ262" s="1" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
       <c r="CA262" s="1" t="s">
         <v>123</v>
@@ -58901,16 +58795,16 @@
         <v>111</v>
       </c>
       <c r="CC262" s="1" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
       <c r="CD262" s="1" t="s">
         <v>438</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
       <c r="CG262" s="1" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
       <c r="CH262" s="1" t="s">
         <v>208</v>
@@ -58920,6 +58814,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI262" xr:uid="{BA03BEEA-F5E1-444E-BF74-7C9A6F591039}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>